--- a/场馆resource_id，period,sub_resource_id.xlsx
+++ b/场馆resource_id，period,sub_resource_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\hnu-gym\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\hnu-gym\HNU_gym automatic reservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418048F0-41C3-4806-91F8-F29A5B6BE887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F41C2-E759-460A-9885-649D9B95B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{42AAE919-31FF-422E-9919-674375C3A8D3}"/>
+    <workbookView xWindow="2408" yWindow="4515" windowWidth="17280" windowHeight="11033" xr2:uid="{42AAE919-31FF-422E-9919-674375C3A8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>1号台</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,16 +106,32 @@
     <t>财院羽毛球84</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>网球场58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身房59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_resource_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南校区综合馆85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="h:mm;@"/>
-    <numFmt numFmtId="184" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +144,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,21 +178,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,1458 +514,2703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5193FF8-6D50-4236-B721-BE93AC506D6D}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
-    <col min="2" max="12" width="9.06640625" style="3"/>
-    <col min="13" max="20" width="9.06640625" style="2"/>
+    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="12" width="9.06640625" style="2"/>
+    <col min="13" max="20" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3577</v>
+      </c>
+      <c r="C2" s="2">
+        <v>15733</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15747</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15761</v>
+      </c>
+      <c r="F2" s="2">
+        <v>15775</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15789</v>
+      </c>
+      <c r="H2" s="2">
+        <v>15803</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15817</v>
+      </c>
+      <c r="J2" s="2">
+        <v>15831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3578</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15732</v>
+      </c>
+      <c r="D3" s="2">
+        <v>15746</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15760</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15774</v>
+      </c>
+      <c r="G3" s="2">
+        <v>15788</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15802</v>
+      </c>
+      <c r="I3" s="2">
+        <v>15816</v>
+      </c>
+      <c r="J3" s="2">
+        <v>15830</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3579</v>
+      </c>
+      <c r="C4" s="2">
+        <v>15731</v>
+      </c>
+      <c r="D4" s="2">
+        <v>15745</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15759</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15773</v>
+      </c>
+      <c r="G4" s="2">
+        <v>15787</v>
+      </c>
+      <c r="H4" s="2">
+        <v>15801</v>
+      </c>
+      <c r="I4" s="2">
+        <v>15815</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3580</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15730</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15744</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15758</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15772</v>
+      </c>
+      <c r="G5" s="2">
+        <v>15786</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15800</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15814</v>
+      </c>
+      <c r="J5" s="2">
+        <v>15828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3581</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15729</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15743</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15757</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15771</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15785</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15799</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15813</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3582</v>
+      </c>
+      <c r="C7" s="2">
+        <v>15728</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>15756</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15770</v>
+      </c>
+      <c r="G7" s="2">
+        <v>15784</v>
+      </c>
+      <c r="H7" s="2">
+        <v>15798</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15812</v>
+      </c>
+      <c r="J7" s="2">
+        <v>15826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3583</v>
+      </c>
+      <c r="C8" s="2">
+        <v>15727</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15741</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15755</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15769</v>
+      </c>
+      <c r="G8" s="2">
+        <v>15783</v>
+      </c>
+      <c r="H8" s="2">
+        <v>15797</v>
+      </c>
+      <c r="I8" s="2">
+        <v>15811</v>
+      </c>
+      <c r="J8" s="2">
+        <v>15825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3584</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15726</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15740</v>
+      </c>
+      <c r="E9" s="2">
+        <v>15754</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15768</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15782</v>
+      </c>
+      <c r="H9" s="2">
+        <v>15796</v>
+      </c>
+      <c r="I9" s="2">
+        <v>15810</v>
+      </c>
+      <c r="J9" s="2">
+        <v>15824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3585</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15725</v>
+      </c>
+      <c r="D10" s="2">
+        <v>15739</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15753</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15767</v>
+      </c>
+      <c r="G10" s="2">
+        <v>15781</v>
+      </c>
+      <c r="H10" s="2">
+        <v>15795</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15809</v>
+      </c>
+      <c r="J10" s="2">
+        <v>15823</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3586</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15724</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15738</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15752</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15766</v>
+      </c>
+      <c r="G11" s="2">
+        <v>15780</v>
+      </c>
+      <c r="H11" s="2">
+        <v>15794</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15808</v>
+      </c>
+      <c r="J11" s="2">
+        <v>15822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3587</v>
+      </c>
+      <c r="C12" s="2">
+        <v>15723</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15737</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15751</v>
+      </c>
+      <c r="F12" s="2">
+        <v>15765</v>
+      </c>
+      <c r="G12" s="2">
+        <v>15779</v>
+      </c>
+      <c r="H12" s="2">
+        <v>15793</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15807</v>
+      </c>
+      <c r="J12" s="2">
+        <v>15821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3588</v>
+      </c>
+      <c r="C13" s="2">
+        <v>15722</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15736</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15750</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15764</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15778</v>
+      </c>
+      <c r="H13" s="2">
+        <v>15792</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15806</v>
+      </c>
+      <c r="J13" s="2">
+        <v>15820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>0.84027777777777801</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3589</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15721</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15735</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15749</v>
+      </c>
+      <c r="F14" s="2">
+        <v>15763</v>
+      </c>
+      <c r="G14" s="2">
+        <v>15777</v>
+      </c>
+      <c r="H14" s="2">
+        <v>15791</v>
+      </c>
+      <c r="I14" s="2">
+        <v>15805</v>
+      </c>
+      <c r="J14" s="2">
+        <v>15819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>0.88194444444444398</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3590</v>
+      </c>
+      <c r="C15" s="2">
+        <v>15720</v>
+      </c>
+      <c r="D15" s="2">
+        <v>15734</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15748</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15762</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15776</v>
+      </c>
+      <c r="H15" s="2">
+        <v>15790</v>
+      </c>
+      <c r="I15" s="2">
+        <v>15804</v>
+      </c>
+      <c r="J15" s="2">
+        <v>15818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3549</v>
+      </c>
+      <c r="C18" s="2">
+        <v>15537</v>
+      </c>
+      <c r="D18" s="2">
+        <v>15551</v>
+      </c>
+      <c r="E18" s="2">
+        <v>15565</v>
+      </c>
+      <c r="F18" s="2">
+        <v>15579</v>
+      </c>
+      <c r="G18" s="2">
+        <v>15593</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3550</v>
+      </c>
+      <c r="C19" s="2">
+        <v>15536</v>
+      </c>
+      <c r="D19" s="2">
+        <v>15550</v>
+      </c>
+      <c r="E19" s="2">
+        <v>15564</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15578</v>
+      </c>
+      <c r="G19" s="2">
+        <v>15592</v>
+      </c>
+      <c r="H19" s="2">
+        <v>15606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3551</v>
+      </c>
+      <c r="C20" s="2">
+        <v>15535</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15549</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15563</v>
+      </c>
+      <c r="F20" s="2">
+        <v>15577</v>
+      </c>
+      <c r="G20" s="2">
+        <v>15591</v>
+      </c>
+      <c r="H20" s="2">
+        <v>15605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3552</v>
+      </c>
+      <c r="C21" s="2">
+        <v>15534</v>
+      </c>
+      <c r="D21" s="2">
+        <v>15548</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15562</v>
+      </c>
+      <c r="F21" s="2">
+        <v>15576</v>
+      </c>
+      <c r="G21" s="2">
+        <v>15590</v>
+      </c>
+      <c r="H21" s="2">
+        <v>15604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3553</v>
+      </c>
+      <c r="C22" s="2">
+        <v>15533</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15547</v>
+      </c>
+      <c r="E22" s="2">
+        <v>15561</v>
+      </c>
+      <c r="F22" s="2">
+        <v>15575</v>
+      </c>
+      <c r="G22" s="2">
+        <v>15589</v>
+      </c>
+      <c r="H22" s="2">
+        <v>15603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3554</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15532</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15546</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15560</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15574</v>
+      </c>
+      <c r="G23" s="2">
+        <v>15588</v>
+      </c>
+      <c r="H23" s="2">
+        <v>15602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A24" s="3">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3555</v>
+      </c>
+      <c r="C24" s="2">
+        <v>15531</v>
+      </c>
+      <c r="D24" s="2">
+        <v>15545</v>
+      </c>
+      <c r="E24" s="2">
+        <v>15559</v>
+      </c>
+      <c r="F24" s="2">
+        <v>15573</v>
+      </c>
+      <c r="G24" s="2">
+        <v>15587</v>
+      </c>
+      <c r="H24" s="2">
+        <v>15601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A25" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3556</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15530</v>
+      </c>
+      <c r="D25" s="2">
+        <v>15544</v>
+      </c>
+      <c r="E25" s="2">
+        <v>15558</v>
+      </c>
+      <c r="F25" s="2">
+        <v>15572</v>
+      </c>
+      <c r="G25" s="2">
+        <v>15586</v>
+      </c>
+      <c r="H25" s="2">
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A26" s="3">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3557</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15529</v>
+      </c>
+      <c r="D26" s="2">
+        <v>15543</v>
+      </c>
+      <c r="E26" s="2">
+        <v>15557</v>
+      </c>
+      <c r="F26" s="2">
+        <v>15571</v>
+      </c>
+      <c r="G26" s="2">
+        <v>15585</v>
+      </c>
+      <c r="H26" s="2">
+        <v>15599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A27" s="3">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3558</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15528</v>
+      </c>
+      <c r="D27" s="2">
+        <v>15542</v>
+      </c>
+      <c r="E27" s="2">
+        <v>15556</v>
+      </c>
+      <c r="F27" s="2">
+        <v>15570</v>
+      </c>
+      <c r="G27" s="2">
+        <v>15584</v>
+      </c>
+      <c r="H27" s="2">
+        <v>15598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A28" s="3">
+        <v>0.75694444444444497</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3559</v>
+      </c>
+      <c r="C28" s="2">
+        <v>15527</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15541</v>
+      </c>
+      <c r="E28" s="2">
+        <v>15555</v>
+      </c>
+      <c r="F28" s="2">
+        <v>15569</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15583</v>
+      </c>
+      <c r="H28" s="2">
+        <v>15597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A29" s="3">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3560</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15526</v>
+      </c>
+      <c r="D29" s="2">
+        <v>15540</v>
+      </c>
+      <c r="E29" s="2">
+        <v>15554</v>
+      </c>
+      <c r="F29" s="2">
+        <v>15568</v>
+      </c>
+      <c r="G29" s="2">
+        <v>15582</v>
+      </c>
+      <c r="H29" s="2">
+        <v>15596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A30" s="3">
+        <v>0.84027777777777801</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3561</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15525</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15539</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15553</v>
+      </c>
+      <c r="F30" s="2">
+        <v>15567</v>
+      </c>
+      <c r="G30" s="2">
+        <v>15581</v>
+      </c>
+      <c r="H30" s="2">
+        <v>15595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A31" s="3">
+        <v>0.88194444444444398</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3562</v>
+      </c>
+      <c r="C31" s="2">
+        <v>15524</v>
+      </c>
+      <c r="D31" s="2">
+        <v>15538</v>
+      </c>
+      <c r="E31" s="2">
+        <v>15552</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15566</v>
+      </c>
+      <c r="G31" s="2">
+        <v>15580</v>
+      </c>
+      <c r="H31" s="2">
+        <v>15594</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3631</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16142</v>
+      </c>
+      <c r="D38" s="2">
+        <v>16147</v>
+      </c>
+      <c r="E38" s="2">
+        <v>16152</v>
+      </c>
+      <c r="F38" s="2">
+        <v>16157</v>
+      </c>
+      <c r="G38" s="2">
+        <v>16162</v>
+      </c>
+      <c r="H38" s="2">
+        <v>16167</v>
+      </c>
+      <c r="I38" s="2">
+        <v>16172</v>
+      </c>
+      <c r="J38" s="2">
+        <v>16177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3632</v>
+      </c>
+      <c r="C39" s="2">
+        <v>16141</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16146</v>
+      </c>
+      <c r="E39" s="2">
+        <v>16151</v>
+      </c>
+      <c r="F39" s="2">
+        <v>16156</v>
+      </c>
+      <c r="G39" s="2">
+        <v>16161</v>
+      </c>
+      <c r="H39" s="2">
+        <v>16166</v>
+      </c>
+      <c r="I39" s="2">
+        <v>16171</v>
+      </c>
+      <c r="J39" s="2">
+        <v>16176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3633</v>
+      </c>
+      <c r="C40" s="2">
+        <v>16140</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16145</v>
+      </c>
+      <c r="E40" s="2">
+        <v>16150</v>
+      </c>
+      <c r="F40" s="2">
+        <v>16155</v>
+      </c>
+      <c r="G40" s="2">
+        <v>16160</v>
+      </c>
+      <c r="H40" s="2">
+        <v>16165</v>
+      </c>
+      <c r="I40" s="2">
+        <v>16170</v>
+      </c>
+      <c r="J40" s="2">
+        <v>16175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3634</v>
+      </c>
+      <c r="C41" s="2">
+        <v>16139</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16144</v>
+      </c>
+      <c r="E41" s="2">
+        <v>16149</v>
+      </c>
+      <c r="F41" s="2">
+        <v>16154</v>
+      </c>
+      <c r="G41" s="2">
+        <v>16159</v>
+      </c>
+      <c r="H41" s="2">
+        <v>16164</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16169</v>
+      </c>
+      <c r="J41" s="2">
+        <v>16174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="3">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3635</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16138</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16143</v>
+      </c>
+      <c r="E42" s="2">
+        <v>16148</v>
+      </c>
+      <c r="F42" s="2">
+        <v>16153</v>
+      </c>
+      <c r="G42" s="2">
+        <v>16158</v>
+      </c>
+      <c r="H42" s="2">
+        <v>16163</v>
+      </c>
+      <c r="I42" s="2">
+        <v>16168</v>
+      </c>
+      <c r="J42" s="2">
+        <v>16173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3636</v>
+      </c>
+      <c r="C43" s="2">
+        <v>16178</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16179</v>
+      </c>
+      <c r="E43" s="2">
+        <v>16180</v>
+      </c>
+      <c r="F43" s="2">
+        <v>16181</v>
+      </c>
+      <c r="G43" s="2">
+        <v>16182</v>
+      </c>
+      <c r="H43" s="2">
+        <v>16183</v>
+      </c>
+      <c r="I43" s="2">
+        <v>16184</v>
+      </c>
+      <c r="J43" s="2">
+        <v>16185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3637</v>
+      </c>
+      <c r="C44" s="2">
+        <v>16186</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16187</v>
+      </c>
+      <c r="E44" s="2">
+        <v>16188</v>
+      </c>
+      <c r="F44" s="2">
+        <v>16189</v>
+      </c>
+      <c r="G44" s="2">
+        <v>16190</v>
+      </c>
+      <c r="H44" s="2">
+        <v>16191</v>
+      </c>
+      <c r="I44" s="2">
+        <v>16192</v>
+      </c>
+      <c r="J44" s="2">
+        <v>16193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="3">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3638</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16224</v>
+      </c>
+      <c r="E45" s="2">
+        <v>16218</v>
+      </c>
+      <c r="F45" s="2">
+        <v>16219</v>
+      </c>
+      <c r="G45" s="2">
+        <v>16220</v>
+      </c>
+      <c r="H45" s="2">
+        <v>16221</v>
+      </c>
+      <c r="I45" s="2">
+        <v>16222</v>
+      </c>
+      <c r="J45" s="2">
+        <v>16223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="3">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3639</v>
+      </c>
+      <c r="C46" s="2">
+        <v>16232</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16233</v>
+      </c>
+      <c r="E46" s="2">
+        <v>16226</v>
+      </c>
+      <c r="F46" s="2">
+        <v>16227</v>
+      </c>
+      <c r="G46" s="2">
+        <v>16228</v>
+      </c>
+      <c r="H46" s="2">
+        <v>16229</v>
+      </c>
+      <c r="I46" s="2">
+        <v>16230</v>
+      </c>
+      <c r="J46" s="2">
+        <v>16231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3640</v>
+      </c>
+      <c r="C47" s="2">
+        <v>16201</v>
+      </c>
+      <c r="D47" s="2">
+        <v>16200</v>
+      </c>
+      <c r="E47" s="2">
+        <v>16199</v>
+      </c>
+      <c r="F47" s="2">
+        <v>16198</v>
+      </c>
+      <c r="G47" s="2">
+        <v>16197</v>
+      </c>
+      <c r="H47" s="2">
+        <v>16196</v>
+      </c>
+      <c r="I47" s="2">
+        <v>16195</v>
+      </c>
+      <c r="J47" s="2">
+        <v>16194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="3">
+        <v>0.80555555555555602</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3641</v>
+      </c>
+      <c r="C48" s="2">
+        <v>16209</v>
+      </c>
+      <c r="D48" s="2">
+        <v>16208</v>
+      </c>
+      <c r="E48" s="2">
+        <v>16207</v>
+      </c>
+      <c r="F48" s="2">
+        <v>16206</v>
+      </c>
+      <c r="G48" s="2">
+        <v>16205</v>
+      </c>
+      <c r="H48" s="2">
+        <v>16204</v>
+      </c>
+      <c r="I48" s="2">
+        <v>16203</v>
+      </c>
+      <c r="J48" s="2">
+        <v>16202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="3">
+        <v>0.84722222222222299</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3642</v>
+      </c>
+      <c r="C49" s="2">
+        <v>16208</v>
+      </c>
+      <c r="D49" s="2">
+        <v>16209</v>
+      </c>
+      <c r="E49" s="2">
+        <v>16210</v>
+      </c>
+      <c r="F49" s="2">
+        <v>16211</v>
+      </c>
+      <c r="G49" s="2">
+        <v>16212</v>
+      </c>
+      <c r="H49" s="2">
+        <v>16213</v>
+      </c>
+      <c r="I49" s="2">
+        <v>16214</v>
+      </c>
+      <c r="J49" s="2">
+        <v>16215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3643</v>
+      </c>
+      <c r="C52" s="2">
+        <v>16247</v>
+      </c>
+      <c r="D52" s="2">
+        <v>16261</v>
+      </c>
+      <c r="E52" s="2">
+        <v>16275</v>
+      </c>
+      <c r="F52" s="2">
+        <v>16289</v>
+      </c>
+      <c r="G52" s="2">
+        <v>16303</v>
+      </c>
+      <c r="H52" s="2">
+        <v>16317</v>
+      </c>
+      <c r="I52" s="2">
+        <v>16331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3644</v>
+      </c>
+      <c r="C53" s="2">
+        <v>16246</v>
+      </c>
+      <c r="D53" s="2">
+        <v>16260</v>
+      </c>
+      <c r="E53" s="2">
+        <v>16274</v>
+      </c>
+      <c r="F53" s="2">
+        <v>16288</v>
+      </c>
+      <c r="G53" s="2">
+        <v>16302</v>
+      </c>
+      <c r="H53" s="2">
+        <v>16316</v>
+      </c>
+      <c r="I53" s="2">
+        <v>16330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="3">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B54" s="2">
+        <v>3645</v>
+      </c>
+      <c r="C54" s="2">
+        <v>16245</v>
+      </c>
+      <c r="D54" s="2">
+        <v>16259</v>
+      </c>
+      <c r="E54" s="2">
+        <v>16273</v>
+      </c>
+      <c r="F54" s="2">
+        <v>16287</v>
+      </c>
+      <c r="G54" s="2">
+        <v>16301</v>
+      </c>
+      <c r="H54" s="2">
+        <v>16315</v>
+      </c>
+      <c r="I54" s="2">
+        <v>16329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="3">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B55" s="2">
+        <v>3646</v>
+      </c>
+      <c r="C55" s="2">
+        <v>16244</v>
+      </c>
+      <c r="D55" s="2">
+        <v>16258</v>
+      </c>
+      <c r="E55" s="2">
+        <v>16272</v>
+      </c>
+      <c r="F55" s="2">
+        <v>16286</v>
+      </c>
+      <c r="G55" s="2">
+        <v>16300</v>
+      </c>
+      <c r="H55" s="2">
+        <v>16314</v>
+      </c>
+      <c r="I55" s="2">
+        <v>16328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>3647</v>
+      </c>
+      <c r="C56" s="2">
+        <v>16243</v>
+      </c>
+      <c r="D56" s="2">
+        <v>16257</v>
+      </c>
+      <c r="E56" s="2">
+        <v>16271</v>
+      </c>
+      <c r="F56" s="2">
+        <v>16285</v>
+      </c>
+      <c r="G56" s="2">
+        <v>16299</v>
+      </c>
+      <c r="H56" s="2">
+        <v>16313</v>
+      </c>
+      <c r="I56" s="2">
+        <v>16327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B57" s="2">
+        <v>3648</v>
+      </c>
+      <c r="C57" s="2">
+        <v>16242</v>
+      </c>
+      <c r="D57" s="2">
+        <v>16256</v>
+      </c>
+      <c r="E57" s="2">
+        <v>16270</v>
+      </c>
+      <c r="F57" s="2">
+        <v>16284</v>
+      </c>
+      <c r="G57" s="2">
+        <v>16298</v>
+      </c>
+      <c r="H57" s="2">
+        <v>16312</v>
+      </c>
+      <c r="I57" s="2">
+        <v>16326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3649</v>
+      </c>
+      <c r="C58" s="2">
+        <v>16241</v>
+      </c>
+      <c r="D58" s="2">
+        <v>16255</v>
+      </c>
+      <c r="E58" s="2">
+        <v>16269</v>
+      </c>
+      <c r="F58" s="2">
+        <v>16283</v>
+      </c>
+      <c r="G58" s="2">
+        <v>16297</v>
+      </c>
+      <c r="H58" s="2">
+        <v>16311</v>
+      </c>
+      <c r="I58" s="2">
+        <v>16325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3650</v>
+      </c>
+      <c r="C59" s="2">
+        <v>16240</v>
+      </c>
+      <c r="D59" s="2">
+        <v>16254</v>
+      </c>
+      <c r="E59" s="2">
+        <v>16268</v>
+      </c>
+      <c r="F59" s="2">
+        <v>16282</v>
+      </c>
+      <c r="G59" s="2">
+        <v>16296</v>
+      </c>
+      <c r="H59" s="2">
+        <v>16310</v>
+      </c>
+      <c r="I59" s="2">
+        <v>16324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3651</v>
+      </c>
+      <c r="C60" s="2">
+        <v>16239</v>
+      </c>
+      <c r="D60" s="2">
+        <v>16253</v>
+      </c>
+      <c r="E60" s="2">
+        <v>16267</v>
+      </c>
+      <c r="F60" s="2">
+        <v>16281</v>
+      </c>
+      <c r="G60" s="2">
+        <v>16295</v>
+      </c>
+      <c r="H60" s="2">
+        <v>16309</v>
+      </c>
+      <c r="I60" s="2">
+        <v>16323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B61" s="2">
+        <v>3652</v>
+      </c>
+      <c r="C61" s="2">
+        <v>16238</v>
+      </c>
+      <c r="D61" s="2">
+        <v>16252</v>
+      </c>
+      <c r="E61" s="2">
+        <v>16266</v>
+      </c>
+      <c r="F61" s="2">
+        <v>16280</v>
+      </c>
+      <c r="G61" s="2">
+        <v>16294</v>
+      </c>
+      <c r="H61" s="2">
+        <v>16308</v>
+      </c>
+      <c r="I61" s="2">
+        <v>16322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3653</v>
+      </c>
+      <c r="C62" s="2">
+        <v>16237</v>
+      </c>
+      <c r="D62" s="2">
+        <v>16251</v>
+      </c>
+      <c r="E62" s="2">
+        <v>16265</v>
+      </c>
+      <c r="F62" s="2">
+        <v>16279</v>
+      </c>
+      <c r="G62" s="2">
+        <v>16293</v>
+      </c>
+      <c r="H62" s="2">
+        <v>16307</v>
+      </c>
+      <c r="I62" s="2">
+        <v>16321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3654</v>
+      </c>
+      <c r="C63" s="2">
+        <v>16236</v>
+      </c>
+      <c r="D63" s="2">
+        <v>16250</v>
+      </c>
+      <c r="E63" s="2">
+        <v>16264</v>
+      </c>
+      <c r="F63" s="2">
+        <v>16278</v>
+      </c>
+      <c r="G63" s="2">
+        <v>16292</v>
+      </c>
+      <c r="H63" s="2">
+        <v>16306</v>
+      </c>
+      <c r="I63" s="2">
+        <v>16320</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3655</v>
+      </c>
+      <c r="C64" s="2">
+        <v>16235</v>
+      </c>
+      <c r="D64" s="2">
+        <v>16249</v>
+      </c>
+      <c r="E64" s="2">
+        <v>16263</v>
+      </c>
+      <c r="F64" s="2">
+        <v>16277</v>
+      </c>
+      <c r="G64" s="2">
+        <v>16291</v>
+      </c>
+      <c r="H64" s="2">
+        <v>16305</v>
+      </c>
+      <c r="I64" s="2">
+        <v>16319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3656</v>
+      </c>
+      <c r="C65" s="2">
+        <v>16234</v>
+      </c>
+      <c r="D65" s="2">
+        <v>16248</v>
+      </c>
+      <c r="E65" s="2">
+        <v>16262</v>
+      </c>
+      <c r="F65" s="2">
+        <v>16276</v>
+      </c>
+      <c r="G65" s="2">
+        <v>16290</v>
+      </c>
+      <c r="H65" s="2">
+        <v>16304</v>
+      </c>
+      <c r="I65" s="2">
+        <v>16318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B68" s="2">
+        <v>3506</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I70" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R70" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T70" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B71" s="2">
         <v>3521</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C71" s="2">
         <v>15173</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D71" s="2">
         <v>15187</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E71" s="2">
         <v>15201</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F71" s="2">
         <v>15215</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G71" s="2">
         <v>15229</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H71" s="2">
         <v>15243</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I71" s="2">
         <v>15257</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J71" s="2">
         <v>15271</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K71" s="2">
         <v>15285</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L71" s="2">
         <v>15299</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M71" s="2">
         <v>15313</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N71" s="2">
         <v>15327</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O71" s="2">
         <v>15341</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P71" s="2">
         <v>15355</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q71" s="2">
         <v>15369</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R71" s="2">
         <v>15383</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S71" s="2">
         <v>15397</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T71" s="2">
         <v>15411</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
         <v>0.375</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B72" s="2">
         <v>3522</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C72" s="2">
         <v>15172</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D72" s="2">
         <v>15186</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E72" s="2">
         <v>15200</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F72" s="2">
         <v>15214</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G72" s="2">
         <v>15228</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H72" s="2">
         <v>15242</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I72" s="2">
         <v>15256</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J72" s="2">
         <v>15270</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K72" s="2">
         <v>15284</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L72" s="2">
         <v>15298</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M72" s="2">
         <v>15312</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N72" s="2">
         <v>15326</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O72" s="2">
         <v>15340</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P72" s="2">
         <v>15354</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q72" s="2">
         <v>15368</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R72" s="2">
         <v>15382</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S72" s="2">
         <v>15396</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T72" s="2">
         <v>15410</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B73" s="2">
         <v>3523</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C73" s="2">
         <v>15171</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D73" s="2">
         <v>15185</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E73" s="2">
         <v>15199</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F73" s="2">
         <v>15213</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G73" s="2">
         <v>15227</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H73" s="2">
         <v>15241</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I73" s="2">
         <v>15255</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J73" s="2">
         <v>15269</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K73" s="2">
         <v>15283</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L73" s="2">
         <v>15297</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M73" s="2">
         <v>15311</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N73" s="2">
         <v>15325</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O73" s="2">
         <v>15339</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P73" s="2">
         <v>15353</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q73" s="2">
         <v>15367</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R73" s="2">
         <v>15381</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S73" s="2">
         <v>15395</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T73" s="2">
         <v>15409</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B74" s="2">
         <v>3524</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C74" s="2">
         <v>15170</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D74" s="2">
         <v>15184</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E74" s="2">
         <v>15198</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F74" s="2">
         <v>15212</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G74" s="2">
         <v>15226</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H74" s="2">
         <v>15240</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I74" s="2">
         <v>15254</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J74" s="2">
         <v>15268</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K74" s="2">
         <v>15282</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L74" s="2">
         <v>15296</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M74" s="2">
         <v>15310</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N74" s="2">
         <v>15324</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O74" s="2">
         <v>15338</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P74" s="2">
         <v>15352</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q74" s="2">
         <v>15366</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R74" s="2">
         <v>15380</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S74" s="2">
         <v>15394</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T74" s="2">
         <v>15408</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
         <v>0.5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B75" s="2">
         <v>3525</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C75" s="2">
         <v>15169</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D75" s="2">
         <v>15183</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E75" s="2">
         <v>15197</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F75" s="2">
         <v>15211</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G75" s="2">
         <v>15225</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H75" s="2">
         <v>15239</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I75" s="2">
         <v>15253</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J75" s="2">
         <v>15267</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K75" s="2">
         <v>15281</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L75" s="2">
         <v>15295</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M75" s="2">
         <v>15309</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N75" s="2">
         <v>15323</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O75" s="2">
         <v>15337</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P75" s="2">
         <v>15351</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q75" s="2">
         <v>15365</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R75" s="2">
         <v>15379</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S75" s="2">
         <v>15393</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T75" s="2">
         <v>15407</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B76" s="2">
         <v>3526</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C76" s="2">
         <v>15168</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D76" s="2">
         <v>15182</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E76" s="2">
         <v>15196</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F76" s="2">
         <v>15210</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G76" s="2">
         <v>15224</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H76" s="2">
         <v>15238</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I76" s="2">
         <v>15252</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J76" s="2">
         <v>15266</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K76" s="2">
         <v>15280</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L76" s="2">
         <v>15294</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M76" s="2">
         <v>15308</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N76" s="2">
         <v>15322</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O76" s="2">
         <v>15336</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P76" s="2">
         <v>15350</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q76" s="2">
         <v>15364</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R76" s="2">
         <v>15378</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S76" s="2">
         <v>15392</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T76" s="2">
         <v>15406</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A77" s="3">
         <v>0.59027777777777779</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B77" s="2">
         <v>3527</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C77" s="2">
         <v>15167</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D77" s="2">
         <v>15181</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E77" s="2">
         <v>15195</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F77" s="2">
         <v>15209</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G77" s="2">
         <v>15223</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H77" s="2">
         <v>15237</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I77" s="2">
         <v>15251</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J77" s="2">
         <v>15265</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K77" s="2">
         <v>15279</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L77" s="2">
         <v>15293</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M77" s="2">
         <v>15307</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N77" s="2">
         <v>15321</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O77" s="2">
         <v>15335</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P77" s="2">
         <v>15349</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q77" s="2">
         <v>15363</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R77" s="2">
         <v>15377</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S77" s="2">
         <v>15391</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T77" s="2">
         <v>15405</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A78" s="3">
         <v>0.63194444444444442</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B78" s="2">
         <v>3528</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C78" s="2">
         <v>15166</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D78" s="2">
         <v>15180</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E78" s="2">
         <v>15194</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F78" s="2">
         <v>15208</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G78" s="2">
         <v>15222</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H78" s="2">
         <v>15236</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I78" s="2">
         <v>15250</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J78" s="2">
         <v>15264</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K78" s="2">
         <v>15278</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L78" s="2">
         <v>15292</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M78" s="2">
         <v>15306</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N78" s="2">
         <v>15320</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O78" s="2">
         <v>15334</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P78" s="2">
         <v>15348</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q78" s="2">
         <v>15362</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R78" s="2">
         <v>15376</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S78" s="2">
         <v>15390</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T78" s="2">
         <v>15404</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A79" s="3">
         <v>0.67361111111111105</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B79" s="2">
         <v>3529</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C79" s="2">
         <v>15165</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D79" s="2">
         <v>15179</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E79" s="2">
         <v>15193</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F79" s="2">
         <v>15207</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G79" s="2">
         <v>15221</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H79" s="2">
         <v>15235</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I79" s="2">
         <v>15249</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J79" s="2">
         <v>15263</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K79" s="2">
         <v>15277</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L79" s="2">
         <v>15291</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M79" s="2">
         <v>15305</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N79" s="2">
         <v>15319</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O79" s="2">
         <v>15333</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P79" s="2">
         <v>15347</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q79" s="2">
         <v>15361</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R79" s="2">
         <v>15375</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S79" s="2">
         <v>15389</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T79" s="2">
         <v>15403</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A80" s="3">
         <v>0.71527777777777801</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B80" s="2">
         <v>3530</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C80" s="2">
         <v>15164</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D80" s="2">
         <v>15178</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E80" s="2">
         <v>15192</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F80" s="2">
         <v>15206</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G80" s="2">
         <v>15220</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H80" s="2">
         <v>15234</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I80" s="2">
         <v>15248</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J80" s="2">
         <v>15262</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K80" s="2">
         <v>15276</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L80" s="2">
         <v>15290</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M80" s="2">
         <v>15304</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N80" s="2">
         <v>15318</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O80" s="2">
         <v>15332</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P80" s="2">
         <v>15346</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q80" s="2">
         <v>15360</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R80" s="2">
         <v>15374</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S80" s="2">
         <v>15388</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T80" s="2">
         <v>15402</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A81" s="3">
         <v>0.75694444444444497</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B81" s="2">
         <v>3531</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C81" s="2">
         <v>15163</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D81" s="2">
         <v>15177</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E81" s="2">
         <v>15191</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F81" s="2">
         <v>15205</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G81" s="2">
         <v>15219</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H81" s="2">
         <v>15233</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I81" s="2">
         <v>15247</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J81" s="2">
         <v>15261</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K81" s="2">
         <v>15275</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L81" s="2">
         <v>15289</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M81" s="2">
         <v>15303</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N81" s="2">
         <v>15317</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O81" s="2">
         <v>15331</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P81" s="2">
         <v>15345</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q81" s="2">
         <v>15359</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R81" s="2">
         <v>15373</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S81" s="2">
         <v>15387</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T81" s="2">
         <v>15401</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A82" s="3">
         <v>0.79861111111111105</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B82" s="2">
         <v>3532</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C82" s="2">
         <v>15162</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D82" s="2">
         <v>15176</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E82" s="2">
         <v>15190</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F82" s="2">
         <v>15204</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G82" s="2">
         <v>15218</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H82" s="2">
         <v>15232</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I82" s="2">
         <v>15246</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J82" s="2">
         <v>15260</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K82" s="2">
         <v>15274</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L82" s="2">
         <v>15288</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M82" s="2">
         <v>15302</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N82" s="2">
         <v>15316</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O82" s="2">
         <v>15330</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P82" s="2">
         <v>15344</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q82" s="2">
         <v>15358</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R82" s="2">
         <v>15372</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S82" s="2">
         <v>15386</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T82" s="2">
         <v>15400</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A83" s="3">
         <v>0.84027777777777801</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B83" s="2">
         <v>3533</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C83" s="2">
         <v>15161</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D83" s="2">
         <v>15175</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E83" s="2">
         <v>15189</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F83" s="2">
         <v>15203</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G83" s="2">
         <v>15217</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H83" s="2">
         <v>15231</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I83" s="2">
         <v>15245</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J83" s="2">
         <v>15259</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K83" s="2">
         <v>15273</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L83" s="2">
         <v>15287</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M83" s="2">
         <v>15301</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N83" s="2">
         <v>15315</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O83" s="2">
         <v>15329</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P83" s="2">
         <v>15343</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q83" s="2">
         <v>15357</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R83" s="2">
         <v>15371</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S83" s="2">
         <v>15385</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T83" s="2">
         <v>15399</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A84" s="3">
         <v>0.88194444444444398</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B84" s="2">
         <v>3534</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C84" s="2">
         <v>15160</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D84" s="2">
         <v>15174</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E84" s="2">
         <v>15188</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F84" s="2">
         <v>15202</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G84" s="2">
         <v>15216</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H84" s="2">
         <v>15230</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I84" s="2">
         <v>15244</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J84" s="2">
         <v>15258</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K84" s="2">
         <v>15272</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L84" s="2">
         <v>15286</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M84" s="2">
         <v>15300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N84" s="2">
         <v>15314</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O84" s="2">
         <v>15328</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P84" s="2">
         <v>15342</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q84" s="2">
         <v>15356</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R84" s="2">
         <v>15370</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S84" s="2">
         <v>15384</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T84" s="2">
         <v>15398</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <v>0.54166666666666596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <v>0.59027777777777779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <v>0.67361111111111105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <v>0.71527777777777801</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <v>0.75694444444444497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <v>0.79861111111111105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <v>0.84027777777777801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <v>0.88194444444444398</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="B34" s="3">
-        <v>3631</v>
-      </c>
-      <c r="C34" s="3">
-        <v>16236</v>
-      </c>
-      <c r="D34" s="3">
-        <v>16224</v>
-      </c>
-      <c r="E34" s="3">
-        <v>16212</v>
-      </c>
-      <c r="F34" s="3">
-        <v>16200</v>
-      </c>
-      <c r="G34" s="3">
-        <v>16188</v>
-      </c>
-      <c r="H34" s="3">
-        <v>16176</v>
-      </c>
-      <c r="I34" s="3">
-        <v>16164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3632</v>
-      </c>
-      <c r="C35" s="3">
-        <v>16237</v>
-      </c>
-      <c r="D35" s="3">
-        <v>16225</v>
-      </c>
-      <c r="E35" s="3">
-        <v>16213</v>
-      </c>
-      <c r="F35" s="3">
-        <v>16201</v>
-      </c>
-      <c r="G35" s="3">
-        <v>16189</v>
-      </c>
-      <c r="H35" s="3">
-        <v>16177</v>
-      </c>
-      <c r="I35" s="3">
-        <v>16165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B36" s="3">
-        <v>3633</v>
-      </c>
-      <c r="C36" s="3">
-        <v>16238</v>
-      </c>
-      <c r="D36" s="3">
-        <v>16226</v>
-      </c>
-      <c r="E36" s="3">
-        <v>16214</v>
-      </c>
-      <c r="F36" s="3">
-        <v>16202</v>
-      </c>
-      <c r="G36" s="3">
-        <v>16190</v>
-      </c>
-      <c r="H36" s="3">
-        <v>16178</v>
-      </c>
-      <c r="I36" s="3">
-        <v>16166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B37" s="3">
-        <v>3634</v>
-      </c>
-      <c r="C37" s="3">
-        <v>16239</v>
-      </c>
-      <c r="D37" s="3">
-        <v>16227</v>
-      </c>
-      <c r="E37" s="3">
-        <v>16215</v>
-      </c>
-      <c r="F37" s="3">
-        <v>16203</v>
-      </c>
-      <c r="G37" s="3">
-        <v>16191</v>
-      </c>
-      <c r="H37" s="3">
-        <v>16179</v>
-      </c>
-      <c r="I37" s="3">
-        <v>16167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B38" s="3">
-        <v>3635</v>
-      </c>
-      <c r="C38" s="3">
-        <v>16240</v>
-      </c>
-      <c r="D38" s="3">
-        <v>16228</v>
-      </c>
-      <c r="E38" s="3">
-        <v>16216</v>
-      </c>
-      <c r="F38" s="3">
-        <v>16204</v>
-      </c>
-      <c r="G38" s="3">
-        <v>16192</v>
-      </c>
-      <c r="H38" s="3">
-        <v>16180</v>
-      </c>
-      <c r="I38" s="3">
-        <v>16168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3636</v>
-      </c>
-      <c r="C39" s="3">
-        <v>16241</v>
-      </c>
-      <c r="D39" s="3">
-        <v>16229</v>
-      </c>
-      <c r="E39" s="3">
-        <v>16217</v>
-      </c>
-      <c r="F39" s="3">
-        <v>16205</v>
-      </c>
-      <c r="G39" s="3">
-        <v>16193</v>
-      </c>
-      <c r="H39" s="3">
-        <v>16181</v>
-      </c>
-      <c r="I39" s="3">
-        <v>16169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3637</v>
-      </c>
-      <c r="C40" s="3">
-        <v>16242</v>
-      </c>
-      <c r="D40" s="3">
-        <v>16230</v>
-      </c>
-      <c r="E40" s="3">
-        <v>16218</v>
-      </c>
-      <c r="F40" s="3">
-        <v>16206</v>
-      </c>
-      <c r="G40" s="3">
-        <v>16194</v>
-      </c>
-      <c r="H40" s="3">
-        <v>16182</v>
-      </c>
-      <c r="I40" s="3">
-        <v>16170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
-        <v>0.68055555555555558</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3638</v>
-      </c>
-      <c r="C41" s="3">
-        <v>16243</v>
-      </c>
-      <c r="D41" s="3">
-        <v>16231</v>
-      </c>
-      <c r="E41" s="3">
-        <v>16219</v>
-      </c>
-      <c r="F41" s="3">
-        <v>16207</v>
-      </c>
-      <c r="G41" s="3">
-        <v>16195</v>
-      </c>
-      <c r="H41" s="3">
-        <v>16183</v>
-      </c>
-      <c r="I41" s="3">
-        <v>16171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="B42" s="3">
-        <v>3639</v>
-      </c>
-      <c r="C42" s="3">
-        <v>16244</v>
-      </c>
-      <c r="D42" s="3">
-        <v>16232</v>
-      </c>
-      <c r="E42" s="3">
-        <v>16220</v>
-      </c>
-      <c r="F42" s="3">
-        <v>16208</v>
-      </c>
-      <c r="G42" s="3">
-        <v>16196</v>
-      </c>
-      <c r="H42" s="3">
-        <v>16184</v>
-      </c>
-      <c r="I42" s="3">
-        <v>16172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
-        <v>0.76388888888888895</v>
-      </c>
-      <c r="B43" s="3">
-        <v>3640</v>
-      </c>
-      <c r="C43" s="3">
-        <v>16245</v>
-      </c>
-      <c r="D43" s="3">
-        <v>16233</v>
-      </c>
-      <c r="E43" s="3">
-        <v>16221</v>
-      </c>
-      <c r="F43" s="3">
-        <v>16209</v>
-      </c>
-      <c r="G43" s="3">
-        <v>16197</v>
-      </c>
-      <c r="H43" s="3">
-        <v>16185</v>
-      </c>
-      <c r="I43" s="3">
-        <v>16173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <v>0.80555555555555602</v>
-      </c>
-      <c r="B44" s="3">
-        <v>3641</v>
-      </c>
-      <c r="C44" s="3">
-        <v>16246</v>
-      </c>
-      <c r="D44" s="3">
-        <v>16234</v>
-      </c>
-      <c r="E44" s="3">
-        <v>16222</v>
-      </c>
-      <c r="F44" s="3">
-        <v>16210</v>
-      </c>
-      <c r="G44" s="3">
-        <v>16198</v>
-      </c>
-      <c r="H44" s="3">
-        <v>16186</v>
-      </c>
-      <c r="I44" s="3">
-        <v>16174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
-        <v>0.84722222222222299</v>
-      </c>
-      <c r="B45" s="3">
-        <v>3642</v>
-      </c>
-      <c r="C45" s="3">
-        <v>16247</v>
-      </c>
-      <c r="D45" s="3">
-        <v>16235</v>
-      </c>
-      <c r="E45" s="3">
-        <v>16223</v>
-      </c>
-      <c r="F45" s="3">
-        <v>16211</v>
-      </c>
-      <c r="G45" s="3">
-        <v>16199</v>
-      </c>
-      <c r="H45" s="3">
-        <v>16187</v>
-      </c>
-      <c r="I45" s="3">
-        <v>16175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/场馆resource_id，period,sub_resource_id.xlsx
+++ b/场馆resource_id，period,sub_resource_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codes\hnu-gym\HNU_gym automatic reservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071F41C2-E759-460A-9885-649D9B95B34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E35FE9-E059-4162-9C0F-66399AA6BFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2408" yWindow="4515" windowWidth="17280" windowHeight="11033" xr2:uid="{42AAE919-31FF-422E-9919-674375C3A8D3}"/>
+    <workbookView xWindow="510" yWindow="1073" windowWidth="17153" windowHeight="11032" xr2:uid="{42AAE919-31FF-422E-9919-674375C3A8D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5193FF8-6D50-4236-B721-BE93AC506D6D}">
   <dimension ref="A1:T84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2349,868 +2349,230 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="B71" s="2">
-        <v>3521</v>
-      </c>
-      <c r="C71" s="2">
-        <v>15173</v>
-      </c>
-      <c r="D71" s="2">
-        <v>15187</v>
-      </c>
-      <c r="E71" s="2">
-        <v>15201</v>
-      </c>
-      <c r="F71" s="2">
-        <v>15215</v>
-      </c>
-      <c r="G71" s="2">
-        <v>15229</v>
-      </c>
-      <c r="H71" s="2">
-        <v>15243</v>
-      </c>
-      <c r="I71" s="2">
-        <v>15257</v>
-      </c>
-      <c r="J71" s="2">
-        <v>15271</v>
-      </c>
-      <c r="K71" s="2">
-        <v>15285</v>
-      </c>
-      <c r="L71" s="2">
-        <v>15299</v>
-      </c>
-      <c r="M71" s="2">
-        <v>15313</v>
-      </c>
-      <c r="N71" s="2">
-        <v>15327</v>
-      </c>
-      <c r="O71" s="2">
-        <v>15341</v>
-      </c>
-      <c r="P71" s="2">
-        <v>15355</v>
-      </c>
-      <c r="Q71" s="2">
-        <v>15369</v>
-      </c>
-      <c r="R71" s="2">
-        <v>15383</v>
-      </c>
-      <c r="S71" s="2">
-        <v>15397</v>
-      </c>
-      <c r="T71" s="2">
-        <v>15411</v>
-      </c>
+        <v>4055</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>0.375</v>
       </c>
       <c r="B72" s="2">
-        <v>3522</v>
-      </c>
-      <c r="C72" s="2">
-        <v>15172</v>
-      </c>
-      <c r="D72" s="2">
-        <v>15186</v>
-      </c>
-      <c r="E72" s="2">
-        <v>15200</v>
-      </c>
-      <c r="F72" s="2">
-        <v>15214</v>
-      </c>
-      <c r="G72" s="2">
-        <v>15228</v>
-      </c>
-      <c r="H72" s="2">
-        <v>15242</v>
-      </c>
-      <c r="I72" s="2">
-        <v>15256</v>
-      </c>
-      <c r="J72" s="2">
-        <v>15270</v>
-      </c>
-      <c r="K72" s="2">
-        <v>15284</v>
-      </c>
-      <c r="L72" s="2">
-        <v>15298</v>
-      </c>
-      <c r="M72" s="2">
-        <v>15312</v>
-      </c>
-      <c r="N72" s="2">
-        <v>15326</v>
-      </c>
-      <c r="O72" s="2">
-        <v>15340</v>
-      </c>
-      <c r="P72" s="2">
-        <v>15354</v>
-      </c>
-      <c r="Q72" s="2">
-        <v>15368</v>
-      </c>
-      <c r="R72" s="2">
-        <v>15382</v>
-      </c>
-      <c r="S72" s="2">
-        <v>15396</v>
-      </c>
-      <c r="T72" s="2">
-        <v>15410</v>
-      </c>
+        <v>4056</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>0.41666666666666702</v>
       </c>
       <c r="B73" s="2">
-        <v>3523</v>
-      </c>
-      <c r="C73" s="2">
-        <v>15171</v>
-      </c>
-      <c r="D73" s="2">
-        <v>15185</v>
-      </c>
-      <c r="E73" s="2">
-        <v>15199</v>
-      </c>
-      <c r="F73" s="2">
-        <v>15213</v>
-      </c>
-      <c r="G73" s="2">
-        <v>15227</v>
-      </c>
-      <c r="H73" s="2">
-        <v>15241</v>
-      </c>
-      <c r="I73" s="2">
-        <v>15255</v>
-      </c>
-      <c r="J73" s="2">
-        <v>15269</v>
-      </c>
-      <c r="K73" s="2">
-        <v>15283</v>
-      </c>
-      <c r="L73" s="2">
-        <v>15297</v>
-      </c>
-      <c r="M73" s="2">
-        <v>15311</v>
-      </c>
-      <c r="N73" s="2">
-        <v>15325</v>
-      </c>
-      <c r="O73" s="2">
-        <v>15339</v>
-      </c>
-      <c r="P73" s="2">
-        <v>15353</v>
-      </c>
-      <c r="Q73" s="2">
-        <v>15367</v>
-      </c>
-      <c r="R73" s="2">
-        <v>15381</v>
-      </c>
-      <c r="S73" s="2">
-        <v>15395</v>
-      </c>
-      <c r="T73" s="2">
-        <v>15409</v>
-      </c>
+        <v>4057</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>0.45833333333333298</v>
       </c>
       <c r="B74" s="2">
-        <v>3524</v>
-      </c>
-      <c r="C74" s="2">
-        <v>15170</v>
-      </c>
-      <c r="D74" s="2">
-        <v>15184</v>
-      </c>
-      <c r="E74" s="2">
-        <v>15198</v>
-      </c>
-      <c r="F74" s="2">
-        <v>15212</v>
-      </c>
-      <c r="G74" s="2">
-        <v>15226</v>
-      </c>
-      <c r="H74" s="2">
-        <v>15240</v>
-      </c>
-      <c r="I74" s="2">
-        <v>15254</v>
-      </c>
-      <c r="J74" s="2">
-        <v>15268</v>
-      </c>
-      <c r="K74" s="2">
-        <v>15282</v>
-      </c>
-      <c r="L74" s="2">
-        <v>15296</v>
-      </c>
-      <c r="M74" s="2">
-        <v>15310</v>
-      </c>
-      <c r="N74" s="2">
-        <v>15324</v>
-      </c>
-      <c r="O74" s="2">
-        <v>15338</v>
-      </c>
-      <c r="P74" s="2">
-        <v>15352</v>
-      </c>
-      <c r="Q74" s="2">
-        <v>15366</v>
-      </c>
-      <c r="R74" s="2">
-        <v>15380</v>
-      </c>
-      <c r="S74" s="2">
-        <v>15394</v>
-      </c>
-      <c r="T74" s="2">
-        <v>15408</v>
-      </c>
+        <v>4058</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>0.5</v>
       </c>
       <c r="B75" s="2">
-        <v>3525</v>
-      </c>
-      <c r="C75" s="2">
-        <v>15169</v>
-      </c>
-      <c r="D75" s="2">
-        <v>15183</v>
-      </c>
-      <c r="E75" s="2">
-        <v>15197</v>
-      </c>
-      <c r="F75" s="2">
-        <v>15211</v>
-      </c>
-      <c r="G75" s="2">
-        <v>15225</v>
-      </c>
-      <c r="H75" s="2">
-        <v>15239</v>
-      </c>
-      <c r="I75" s="2">
-        <v>15253</v>
-      </c>
-      <c r="J75" s="2">
-        <v>15267</v>
-      </c>
-      <c r="K75" s="2">
-        <v>15281</v>
-      </c>
-      <c r="L75" s="2">
-        <v>15295</v>
-      </c>
-      <c r="M75" s="2">
-        <v>15309</v>
-      </c>
-      <c r="N75" s="2">
-        <v>15323</v>
-      </c>
-      <c r="O75" s="2">
-        <v>15337</v>
-      </c>
-      <c r="P75" s="2">
-        <v>15351</v>
-      </c>
-      <c r="Q75" s="2">
-        <v>15365</v>
-      </c>
-      <c r="R75" s="2">
-        <v>15379</v>
-      </c>
-      <c r="S75" s="2">
-        <v>15393</v>
-      </c>
-      <c r="T75" s="2">
-        <v>15407</v>
-      </c>
+        <v>4059</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>0.54166666666666596</v>
       </c>
       <c r="B76" s="2">
-        <v>3526</v>
-      </c>
-      <c r="C76" s="2">
-        <v>15168</v>
-      </c>
-      <c r="D76" s="2">
-        <v>15182</v>
-      </c>
-      <c r="E76" s="2">
-        <v>15196</v>
-      </c>
-      <c r="F76" s="2">
-        <v>15210</v>
-      </c>
-      <c r="G76" s="2">
-        <v>15224</v>
-      </c>
-      <c r="H76" s="2">
-        <v>15238</v>
-      </c>
-      <c r="I76" s="2">
-        <v>15252</v>
-      </c>
-      <c r="J76" s="2">
-        <v>15266</v>
-      </c>
-      <c r="K76" s="2">
-        <v>15280</v>
-      </c>
-      <c r="L76" s="2">
-        <v>15294</v>
-      </c>
-      <c r="M76" s="2">
-        <v>15308</v>
-      </c>
-      <c r="N76" s="2">
-        <v>15322</v>
-      </c>
-      <c r="O76" s="2">
-        <v>15336</v>
-      </c>
-      <c r="P76" s="2">
-        <v>15350</v>
-      </c>
-      <c r="Q76" s="2">
-        <v>15364</v>
-      </c>
-      <c r="R76" s="2">
-        <v>15378</v>
-      </c>
-      <c r="S76" s="2">
-        <v>15392</v>
-      </c>
-      <c r="T76" s="2">
-        <v>15406</v>
-      </c>
+        <v>4060</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>0.59027777777777779</v>
       </c>
       <c r="B77" s="2">
-        <v>3527</v>
-      </c>
-      <c r="C77" s="2">
-        <v>15167</v>
-      </c>
-      <c r="D77" s="2">
-        <v>15181</v>
-      </c>
-      <c r="E77" s="2">
-        <v>15195</v>
-      </c>
-      <c r="F77" s="2">
-        <v>15209</v>
-      </c>
-      <c r="G77" s="2">
-        <v>15223</v>
-      </c>
-      <c r="H77" s="2">
-        <v>15237</v>
-      </c>
-      <c r="I77" s="2">
-        <v>15251</v>
-      </c>
-      <c r="J77" s="2">
-        <v>15265</v>
-      </c>
-      <c r="K77" s="2">
-        <v>15279</v>
-      </c>
-      <c r="L77" s="2">
-        <v>15293</v>
-      </c>
-      <c r="M77" s="2">
-        <v>15307</v>
-      </c>
-      <c r="N77" s="2">
-        <v>15321</v>
-      </c>
-      <c r="O77" s="2">
-        <v>15335</v>
-      </c>
-      <c r="P77" s="2">
-        <v>15349</v>
-      </c>
-      <c r="Q77" s="2">
-        <v>15363</v>
-      </c>
-      <c r="R77" s="2">
-        <v>15377</v>
-      </c>
-      <c r="S77" s="2">
-        <v>15391</v>
-      </c>
-      <c r="T77" s="2">
-        <v>15405</v>
-      </c>
+        <v>4061</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>0.63194444444444442</v>
       </c>
       <c r="B78" s="2">
-        <v>3528</v>
-      </c>
-      <c r="C78" s="2">
-        <v>15166</v>
-      </c>
-      <c r="D78" s="2">
-        <v>15180</v>
-      </c>
-      <c r="E78" s="2">
-        <v>15194</v>
-      </c>
-      <c r="F78" s="2">
-        <v>15208</v>
-      </c>
-      <c r="G78" s="2">
-        <v>15222</v>
-      </c>
-      <c r="H78" s="2">
-        <v>15236</v>
-      </c>
-      <c r="I78" s="2">
-        <v>15250</v>
-      </c>
-      <c r="J78" s="2">
-        <v>15264</v>
-      </c>
-      <c r="K78" s="2">
-        <v>15278</v>
-      </c>
-      <c r="L78" s="2">
-        <v>15292</v>
-      </c>
-      <c r="M78" s="2">
-        <v>15306</v>
-      </c>
-      <c r="N78" s="2">
-        <v>15320</v>
-      </c>
-      <c r="O78" s="2">
-        <v>15334</v>
-      </c>
-      <c r="P78" s="2">
-        <v>15348</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>15362</v>
-      </c>
-      <c r="R78" s="2">
-        <v>15376</v>
-      </c>
-      <c r="S78" s="2">
-        <v>15390</v>
-      </c>
-      <c r="T78" s="2">
-        <v>15404</v>
-      </c>
+        <v>4062</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>0.67361111111111105</v>
       </c>
       <c r="B79" s="2">
-        <v>3529</v>
-      </c>
-      <c r="C79" s="2">
-        <v>15165</v>
-      </c>
-      <c r="D79" s="2">
-        <v>15179</v>
-      </c>
-      <c r="E79" s="2">
-        <v>15193</v>
-      </c>
-      <c r="F79" s="2">
-        <v>15207</v>
-      </c>
-      <c r="G79" s="2">
-        <v>15221</v>
-      </c>
-      <c r="H79" s="2">
-        <v>15235</v>
-      </c>
-      <c r="I79" s="2">
-        <v>15249</v>
-      </c>
-      <c r="J79" s="2">
-        <v>15263</v>
-      </c>
-      <c r="K79" s="2">
-        <v>15277</v>
-      </c>
-      <c r="L79" s="2">
-        <v>15291</v>
-      </c>
-      <c r="M79" s="2">
-        <v>15305</v>
-      </c>
-      <c r="N79" s="2">
-        <v>15319</v>
-      </c>
-      <c r="O79" s="2">
-        <v>15333</v>
-      </c>
-      <c r="P79" s="2">
-        <v>15347</v>
-      </c>
-      <c r="Q79" s="2">
-        <v>15361</v>
-      </c>
-      <c r="R79" s="2">
-        <v>15375</v>
-      </c>
-      <c r="S79" s="2">
-        <v>15389</v>
-      </c>
-      <c r="T79" s="2">
-        <v>15403</v>
-      </c>
+        <v>4063</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>0.71527777777777801</v>
       </c>
       <c r="B80" s="2">
-        <v>3530</v>
-      </c>
-      <c r="C80" s="2">
-        <v>15164</v>
-      </c>
-      <c r="D80" s="2">
-        <v>15178</v>
-      </c>
-      <c r="E80" s="2">
-        <v>15192</v>
-      </c>
-      <c r="F80" s="2">
-        <v>15206</v>
-      </c>
-      <c r="G80" s="2">
-        <v>15220</v>
-      </c>
-      <c r="H80" s="2">
-        <v>15234</v>
-      </c>
-      <c r="I80" s="2">
-        <v>15248</v>
-      </c>
-      <c r="J80" s="2">
-        <v>15262</v>
-      </c>
-      <c r="K80" s="2">
-        <v>15276</v>
-      </c>
-      <c r="L80" s="2">
-        <v>15290</v>
-      </c>
-      <c r="M80" s="2">
-        <v>15304</v>
-      </c>
-      <c r="N80" s="2">
-        <v>15318</v>
-      </c>
-      <c r="O80" s="2">
-        <v>15332</v>
-      </c>
-      <c r="P80" s="2">
-        <v>15346</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>15360</v>
-      </c>
-      <c r="R80" s="2">
-        <v>15374</v>
-      </c>
-      <c r="S80" s="2">
-        <v>15388</v>
-      </c>
-      <c r="T80" s="2">
-        <v>15402</v>
-      </c>
+        <v>4064</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>0.75694444444444497</v>
       </c>
       <c r="B81" s="2">
-        <v>3531</v>
-      </c>
-      <c r="C81" s="2">
-        <v>15163</v>
-      </c>
-      <c r="D81" s="2">
-        <v>15177</v>
-      </c>
-      <c r="E81" s="2">
-        <v>15191</v>
-      </c>
-      <c r="F81" s="2">
-        <v>15205</v>
-      </c>
-      <c r="G81" s="2">
-        <v>15219</v>
-      </c>
-      <c r="H81" s="2">
-        <v>15233</v>
-      </c>
-      <c r="I81" s="2">
-        <v>15247</v>
-      </c>
-      <c r="J81" s="2">
-        <v>15261</v>
-      </c>
-      <c r="K81" s="2">
-        <v>15275</v>
-      </c>
-      <c r="L81" s="2">
-        <v>15289</v>
-      </c>
-      <c r="M81" s="2">
-        <v>15303</v>
-      </c>
-      <c r="N81" s="2">
-        <v>15317</v>
-      </c>
-      <c r="O81" s="2">
-        <v>15331</v>
-      </c>
-      <c r="P81" s="2">
-        <v>15345</v>
-      </c>
-      <c r="Q81" s="2">
-        <v>15359</v>
-      </c>
-      <c r="R81" s="2">
-        <v>15373</v>
-      </c>
-      <c r="S81" s="2">
-        <v>15387</v>
-      </c>
-      <c r="T81" s="2">
-        <v>15401</v>
-      </c>
+        <v>4065</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>0.79861111111111105</v>
       </c>
       <c r="B82" s="2">
-        <v>3532</v>
-      </c>
-      <c r="C82" s="2">
-        <v>15162</v>
-      </c>
-      <c r="D82" s="2">
-        <v>15176</v>
-      </c>
-      <c r="E82" s="2">
-        <v>15190</v>
-      </c>
-      <c r="F82" s="2">
-        <v>15204</v>
-      </c>
-      <c r="G82" s="2">
-        <v>15218</v>
-      </c>
-      <c r="H82" s="2">
-        <v>15232</v>
-      </c>
-      <c r="I82" s="2">
-        <v>15246</v>
-      </c>
-      <c r="J82" s="2">
-        <v>15260</v>
-      </c>
-      <c r="K82" s="2">
-        <v>15274</v>
-      </c>
-      <c r="L82" s="2">
-        <v>15288</v>
-      </c>
-      <c r="M82" s="2">
-        <v>15302</v>
-      </c>
-      <c r="N82" s="2">
-        <v>15316</v>
-      </c>
-      <c r="O82" s="2">
-        <v>15330</v>
-      </c>
-      <c r="P82" s="2">
-        <v>15344</v>
-      </c>
-      <c r="Q82" s="2">
-        <v>15358</v>
-      </c>
-      <c r="R82" s="2">
-        <v>15372</v>
-      </c>
-      <c r="S82" s="2">
-        <v>15386</v>
-      </c>
-      <c r="T82" s="2">
-        <v>15400</v>
-      </c>
+        <v>4066</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>0.84027777777777801</v>
       </c>
       <c r="B83" s="2">
-        <v>3533</v>
-      </c>
-      <c r="C83" s="2">
-        <v>15161</v>
-      </c>
-      <c r="D83" s="2">
-        <v>15175</v>
-      </c>
-      <c r="E83" s="2">
-        <v>15189</v>
-      </c>
-      <c r="F83" s="2">
-        <v>15203</v>
-      </c>
-      <c r="G83" s="2">
-        <v>15217</v>
-      </c>
-      <c r="H83" s="2">
-        <v>15231</v>
-      </c>
-      <c r="I83" s="2">
-        <v>15245</v>
-      </c>
-      <c r="J83" s="2">
-        <v>15259</v>
+        <v>4067</v>
       </c>
       <c r="K83" s="2">
-        <v>15273</v>
-      </c>
-      <c r="L83" s="2">
-        <v>15287</v>
-      </c>
-      <c r="M83" s="2">
-        <v>15301</v>
-      </c>
-      <c r="N83" s="2">
-        <v>15315</v>
-      </c>
-      <c r="O83" s="2">
-        <v>15329</v>
-      </c>
-      <c r="P83" s="2">
-        <v>15343</v>
-      </c>
-      <c r="Q83" s="2">
-        <v>15357</v>
-      </c>
-      <c r="R83" s="2">
-        <v>15371</v>
-      </c>
-      <c r="S83" s="2">
-        <v>15385</v>
-      </c>
-      <c r="T83" s="2">
-        <v>15399</v>
-      </c>
+        <v>18687</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>0.88194444444444398</v>
       </c>
       <c r="B84" s="2">
-        <v>3534</v>
-      </c>
-      <c r="C84" s="2">
-        <v>15160</v>
-      </c>
-      <c r="D84" s="2">
-        <v>15174</v>
-      </c>
-      <c r="E84" s="2">
-        <v>15188</v>
-      </c>
-      <c r="F84" s="2">
-        <v>15202</v>
-      </c>
-      <c r="G84" s="2">
-        <v>15216</v>
-      </c>
-      <c r="H84" s="2">
-        <v>15230</v>
-      </c>
-      <c r="I84" s="2">
-        <v>15244</v>
-      </c>
-      <c r="J84" s="2">
-        <v>15258</v>
+        <v>4068</v>
       </c>
       <c r="K84" s="2">
-        <v>15272</v>
-      </c>
-      <c r="L84" s="2">
-        <v>15286</v>
-      </c>
-      <c r="M84" s="2">
-        <v>15300</v>
-      </c>
-      <c r="N84" s="2">
-        <v>15314</v>
-      </c>
-      <c r="O84" s="2">
-        <v>15328</v>
-      </c>
-      <c r="P84" s="2">
-        <v>15342</v>
-      </c>
-      <c r="Q84" s="2">
-        <v>15356</v>
-      </c>
-      <c r="R84" s="2">
-        <v>15370</v>
-      </c>
-      <c r="S84" s="2">
-        <v>15384</v>
-      </c>
-      <c r="T84" s="2">
-        <v>15398</v>
-      </c>
+        <v>18686</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
